--- a/cse-yearwise.xlsx
+++ b/cse-yearwise.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jayde\Desktop\Visualize\visualisation_between_college\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC20872-C054-4CD8-9ACD-C7493EAC412E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,22 +22,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>cse</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Year</t>
   </si>
   <si>
-    <t>Publication</t>
+    <t>Publications</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +71,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -114,7 +125,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -146,9 +157,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -180,6 +209,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -355,137 +402,135 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>2007</v>
+      </c>
+      <c r="B2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>2013</v>
+      </c>
+      <c r="B8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>2014</v>
+      </c>
+      <c r="B9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>2015</v>
+      </c>
+      <c r="B10">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>2012</v>
-      </c>
-      <c r="B8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>2013</v>
-      </c>
-      <c r="B9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>2014</v>
-      </c>
-      <c r="B10">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>2017</v>
+      </c>
+      <c r="B12">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>2016</v>
-      </c>
-      <c r="B12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B13">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B14">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B15">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>2020</v>
-      </c>
-      <c r="B16">
         <v>16</v>
       </c>
     </row>
@@ -495,24 +540,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
